--- a/database.xlsx
+++ b/database.xlsx
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3807.5</v>
+        <v>3791.5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -434,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5182.5</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -442,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>6000</v>
+        <v>6000.5</v>
       </c>
     </row>
     <row r="5" spans="1:2">

--- a/database.xlsx
+++ b/database.xlsx
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3791.5</v>
+        <v>3726.5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -434,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5198</v>
+        <v>5263</v>
       </c>
     </row>
     <row r="4" spans="1:2">
